--- a/data/data_central.xlsx
+++ b/data/data_central.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhz/08-个人文件/国企研究院/202507国资委数据/可视化开发/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhz/08-个人文件/国企研究院/202507国资委数据/可视化开发/data_2012-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3BD5B9-10C6-274C-9DA1-9CA930046C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928E5432-F52E-D34D-8AC6-824F3DFB3530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="760" windowWidth="21060" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="54">
   <si>
     <t>表单</t>
   </si>
@@ -196,7 +196,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2024</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -577,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -589,7 +596,7 @@
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,11 +624,29 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2012</v>
+      </c>
+      <c r="L1">
+        <v>2013</v>
+      </c>
+      <c r="M1">
+        <v>2014</v>
+      </c>
+      <c r="N1">
+        <v>2015</v>
+      </c>
+      <c r="O1">
+        <v>2016</v>
+      </c>
+      <c r="P1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -652,8 +677,26 @@
       <c r="J2">
         <v>4045.6937499999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>1908.894871794872</v>
+      </c>
+      <c r="L2">
+        <v>2155.5867256637166</v>
+      </c>
+      <c r="M2">
+        <v>2236.3767857142857</v>
+      </c>
+      <c r="N2">
+        <v>2077.4663636363634</v>
+      </c>
+      <c r="O2">
+        <v>2222.3819047619049</v>
+      </c>
+      <c r="P2">
+        <v>2669.4363636363637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -684,8 +727,26 @@
       <c r="J3">
         <v>3814.9729166666671</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>1830.6145299145298</v>
+      </c>
+      <c r="L3">
+        <v>2069.5070796460177</v>
+      </c>
+      <c r="M3">
+        <v>2151.3535714285713</v>
+      </c>
+      <c r="N3">
+        <v>2018.6572727272726</v>
+      </c>
+      <c r="O3">
+        <v>2154.0828571428574</v>
+      </c>
+      <c r="P3">
+        <v>2573.880808080808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -716,8 +777,26 @@
       <c r="J4">
         <v>271.91979166666664</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>96.357264957264945</v>
+      </c>
+      <c r="L4">
+        <v>103.1283185840708</v>
+      </c>
+      <c r="M4">
+        <v>105.21160714285715</v>
+      </c>
+      <c r="N4">
+        <v>90.960909090909098</v>
+      </c>
+      <c r="O4">
+        <v>96.664761904761903</v>
+      </c>
+      <c r="P4">
+        <v>145.34848484848484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -748,8 +827,26 @@
       <c r="J5">
         <v>268.45937499999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>108.26581196581196</v>
+      </c>
+      <c r="L5">
+        <v>116.17610619469026</v>
+      </c>
+      <c r="M5">
+        <v>120.31428571428572</v>
+      </c>
+      <c r="N5">
+        <v>111.51272727272728</v>
+      </c>
+      <c r="O5">
+        <v>117.68380952380951</v>
+      </c>
+      <c r="P5">
+        <v>145.56363636363636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -780,8 +877,26 @@
       <c r="J6">
         <v>201.82291666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>78.661538461538456</v>
+      </c>
+      <c r="L6">
+        <v>83.033628318584064</v>
+      </c>
+      <c r="M6">
+        <v>86.646428571428572</v>
+      </c>
+      <c r="N6">
+        <v>81.13272727272728</v>
+      </c>
+      <c r="O6">
+        <v>83.556190476190466</v>
+      </c>
+      <c r="P6">
+        <v>104.35858585858585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -812,8 +927,26 @@
       <c r="J7">
         <v>13.505208333333334</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>10.841880341880342</v>
+      </c>
+      <c r="L7">
+        <v>11.393805309734514</v>
+      </c>
+      <c r="M7">
+        <v>12.999107142857143</v>
+      </c>
+      <c r="N7">
+        <v>12.896363636363635</v>
+      </c>
+      <c r="O7">
+        <v>12.939047619047619</v>
+      </c>
+      <c r="P7">
+        <v>13.560606060606061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -844,8 +977,26 @@
       <c r="J8">
         <v>2.1802083333333333</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -876,8 +1027,26 @@
       <c r="J9">
         <v>4.7437499999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9">
+        <v>3.9808080808080812</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -908,8 +1077,26 @@
       <c r="J10">
         <v>395.75104166666665</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>82.649572649572647</v>
+      </c>
+      <c r="L10">
+        <v>94.973451327433622</v>
+      </c>
+      <c r="M10">
+        <v>166.58660714285716</v>
+      </c>
+      <c r="N10">
+        <v>177.77363636363634</v>
+      </c>
+      <c r="O10">
+        <v>194.53142857142856</v>
+      </c>
+      <c r="P10">
+        <v>223.1010101010101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -940,8 +1127,26 @@
       <c r="J11">
         <v>1114.7437499999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>416.99401709401712</v>
+      </c>
+      <c r="L11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11">
+        <v>529.73</v>
+      </c>
+      <c r="O11">
+        <v>584.42095238095237</v>
+      </c>
+      <c r="P11">
+        <v>694.86262626262624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -972,8 +1177,26 @@
       <c r="J12">
         <v>113.25625000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>32.780341880341879</v>
+      </c>
+      <c r="L12">
+        <v>37.901769911504424</v>
+      </c>
+      <c r="M12">
+        <v>40.973214285714285</v>
+      </c>
+      <c r="N12">
+        <v>44.87</v>
+      </c>
+      <c r="O12">
+        <v>50.087619047619043</v>
+      </c>
+      <c r="P12">
+        <v>61.414141414141412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1004,8 +1227,26 @@
       <c r="J13">
         <v>1.6156249999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>0.15920256410256411</v>
+      </c>
+      <c r="L13">
+        <v>0.2257637168141593</v>
+      </c>
+      <c r="M13">
+        <v>0.30352678571428571</v>
+      </c>
+      <c r="N13">
+        <v>0.37272727272727274</v>
+      </c>
+      <c r="O13">
+        <v>0.46476190476190471</v>
+      </c>
+      <c r="P13">
+        <v>0.58080808080808077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1036,8 +1277,26 @@
       <c r="J14">
         <v>264.09270833333335</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14">
+        <v>179.50272727272727</v>
+      </c>
+      <c r="O14">
+        <v>184.46190476190475</v>
+      </c>
+      <c r="P14">
+        <v>199.27777777777777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1050,6 +1309,9 @@
       <c r="D15">
         <v>0.4916666666666667</v>
       </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
       <c r="F15">
         <v>1.6237113402061856</v>
       </c>
@@ -1065,8 +1327,26 @@
       <c r="J15">
         <v>3.4010416666666665</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15">
+        <v>0.3009090909090909</v>
+      </c>
+      <c r="O15">
+        <v>0.55238095238095242</v>
+      </c>
+      <c r="P15">
+        <v>0.69292929292929284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1097,8 +1377,26 @@
       <c r="J16">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L16">
+        <v>7.6</v>
+      </c>
+      <c r="M16">
+        <v>7.2</v>
+      </c>
+      <c r="N16">
+        <v>6</v>
+      </c>
+      <c r="O16">
+        <v>5.4</v>
+      </c>
+      <c r="P16">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1129,8 +1427,26 @@
       <c r="J17">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1161,8 +1477,26 @@
       <c r="J18">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>5.7</v>
+      </c>
+      <c r="L18">
+        <v>5.3</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>3.6</v>
+      </c>
+      <c r="P18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1193,8 +1527,26 @@
       <c r="J19">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>4.8</v>
+      </c>
+      <c r="M19">
+        <v>4.7</v>
+      </c>
+      <c r="N19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O19">
+        <v>4.3</v>
+      </c>
+      <c r="P19">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1225,8 +1577,26 @@
       <c r="J20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>5.9</v>
+      </c>
+      <c r="L20">
+        <v>5.6</v>
+      </c>
+      <c r="M20">
+        <v>5.6</v>
+      </c>
+      <c r="N20">
+        <v>5.6</v>
+      </c>
+      <c r="O20">
+        <v>5.5</v>
+      </c>
+      <c r="P20">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -1257,8 +1627,26 @@
       <c r="J21">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>2.1</v>
+      </c>
+      <c r="L21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M21">
+        <v>2.4</v>
+      </c>
+      <c r="N21">
+        <v>2.9</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1289,8 +1677,26 @@
       <c r="J22">
         <v>94.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>95.4</v>
+      </c>
+      <c r="L22">
+        <v>95.4</v>
+      </c>
+      <c r="M22">
+        <v>95.4</v>
+      </c>
+      <c r="N22">
+        <v>96</v>
+      </c>
+      <c r="O22">
+        <v>95.5</v>
+      </c>
+      <c r="P22">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1321,8 +1727,26 @@
       <c r="J23">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>11.7</v>
+      </c>
+      <c r="L23">
+        <v>11.2</v>
+      </c>
+      <c r="M23">
+        <v>10.1</v>
+      </c>
+      <c r="N23">
+        <v>22.3</v>
+      </c>
+      <c r="O23">
+        <v>7.4</v>
+      </c>
+      <c r="P23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1777,26 @@
       <c r="J24">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>19.5</v>
+      </c>
+      <c r="L24">
+        <v>12.9</v>
+      </c>
+      <c r="M24">
+        <v>12.6</v>
+      </c>
+      <c r="N24">
+        <v>2.5</v>
+      </c>
+      <c r="O24">
+        <v>8.4</v>
+      </c>
+      <c r="P24">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1364,14 +1806,47 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
       <c r="I25">
         <v>11.2</v>
       </c>
       <c r="J25">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>51</v>
+      </c>
+      <c r="L25" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1402,8 +1877,26 @@
       <c r="J26">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>62.7</v>
+      </c>
+      <c r="L26">
+        <v>63.4</v>
+      </c>
+      <c r="M26">
+        <v>63</v>
+      </c>
+      <c r="N26">
+        <v>66.7</v>
+      </c>
+      <c r="O26">
+        <v>66.7</v>
+      </c>
+      <c r="P26">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1434,8 +1927,26 @@
       <c r="J27">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>3.9</v>
+      </c>
+      <c r="M27">
+        <v>3.7</v>
+      </c>
+      <c r="N27">
+        <v>3.4</v>
+      </c>
+      <c r="O27">
+        <v>3.5</v>
+      </c>
+      <c r="P27">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1466,8 +1977,26 @@
       <c r="J28">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L28">
+        <v>9.5</v>
+      </c>
+      <c r="M28">
+        <v>11.4</v>
+      </c>
+      <c r="N28">
+        <v>12.8</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1498,8 +2027,26 @@
       <c r="J29">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>1.7</v>
+      </c>
+      <c r="L29">
+        <v>1.8</v>
+      </c>
+      <c r="M29">
+        <v>1.8</v>
+      </c>
+      <c r="N29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="P29">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1530,8 +2077,26 @@
       <c r="J30">
         <v>702.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>247.2</v>
+      </c>
+      <c r="L30">
+        <v>272</v>
+      </c>
+      <c r="M30">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="N30">
+        <v>335.4</v>
+      </c>
+      <c r="O30">
+        <v>371.6</v>
+      </c>
+      <c r="P30">
+        <v>406.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -1562,8 +2127,26 @@
       <c r="J31">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>9.9</v>
+      </c>
+      <c r="L31">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="M31">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N31">
+        <v>8.5</v>
+      </c>
+      <c r="O31">
+        <v>9</v>
+      </c>
+      <c r="P31">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -1594,8 +2177,26 @@
       <c r="J32">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>7.6</v>
+      </c>
+      <c r="L32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M32">
+        <v>8.9</v>
+      </c>
+      <c r="N32">
+        <v>9.4</v>
+      </c>
+      <c r="O32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P32">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -1626,8 +2227,26 @@
       <c r="J33">
         <v>81.7</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33">
+        <v>41.8</v>
+      </c>
+      <c r="M33">
+        <v>40.5</v>
+      </c>
+      <c r="N33">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="O33">
+        <v>44.6</v>
+      </c>
+      <c r="P33">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1658,8 +2277,26 @@
       <c r="J34">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>11.9</v>
+      </c>
+      <c r="L34">
+        <v>11</v>
+      </c>
+      <c r="M34">
+        <v>10.3</v>
+      </c>
+      <c r="N34">
+        <v>10.9</v>
+      </c>
+      <c r="O34">
+        <v>10.1</v>
+      </c>
+      <c r="P34">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -1689,6 +2326,24 @@
       </c>
       <c r="J35">
         <v>10.4</v>
+      </c>
+      <c r="K35">
+        <v>6.8</v>
+      </c>
+      <c r="L35">
+        <v>6.9</v>
+      </c>
+      <c r="M35">
+        <v>7.8</v>
+      </c>
+      <c r="N35">
+        <v>8.9</v>
+      </c>
+      <c r="O35">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P35">
+        <v>8.8000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_central.xlsx
+++ b/data/data_central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhz/08-个人文件/国企研究院/202507国资委数据/可视化开发/data_2012-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928E5432-F52E-D34D-8AC6-824F3DFB3530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE14BF-7EEC-F44D-980A-816A20C1F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="760" windowWidth="21060" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>表单</t>
   </si>
@@ -194,16 +194,6 @@
   <si>
     <t>万元/人</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -587,7 +577,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -977,23 +967,23 @@
       <c r="J8">
         <v>2.1802083333333333</v>
       </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" t="s">
-        <v>51</v>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1027,20 +1017,20 @@
       <c r="J9">
         <v>4.7437499999999995</v>
       </c>
-      <c r="K9" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" t="s">
-        <v>51</v>
-      </c>
-      <c r="O9" t="s">
-        <v>51</v>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
       <c r="P9">
         <v>3.9808080808080812</v>
@@ -1130,11 +1120,11 @@
       <c r="K11">
         <v>416.99401709401712</v>
       </c>
-      <c r="L11" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" t="s">
-        <v>51</v>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
       </c>
       <c r="N11">
         <v>529.73</v>
@@ -1277,14 +1267,14 @@
       <c r="J14">
         <v>264.09270833333335</v>
       </c>
-      <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" t="s">
-        <v>51</v>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
       </c>
       <c r="N14">
         <v>179.50272727272727</v>
@@ -1309,8 +1299,8 @@
       <c r="D15">
         <v>0.4916666666666667</v>
       </c>
-      <c r="E15" t="s">
-        <v>53</v>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1.6237113402061856</v>
@@ -1327,14 +1317,14 @@
       <c r="J15">
         <v>3.4010416666666665</v>
       </c>
-      <c r="K15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" t="s">
-        <v>51</v>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0.3009090909090909</v>
@@ -1427,23 +1417,23 @@
       <c r="J17">
         <v>5.8</v>
       </c>
-      <c r="K17" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" t="s">
-        <v>51</v>
-      </c>
-      <c r="N17" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" t="s">
-        <v>51</v>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1806,20 +1796,20 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" t="s">
-        <v>52</v>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25">
         <v>11.2</v>
@@ -1827,23 +1817,23 @@
       <c r="J25">
         <v>11</v>
       </c>
-      <c r="K25" t="s">
-        <v>51</v>
-      </c>
-      <c r="L25" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" t="s">
-        <v>52</v>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2227,8 +2217,8 @@
       <c r="J33">
         <v>81.7</v>
       </c>
-      <c r="K33" t="s">
-        <v>51</v>
+      <c r="K33">
+        <v>0</v>
       </c>
       <c r="L33">
         <v>41.8</v>

--- a/data/data_central.xlsx
+++ b/data/data_central.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhz/08-个人文件/国企研究院/202507国资委数据/可视化开发/data_2012-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DE14BF-7EEC-F44D-980A-816A20C1F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2854A4C9-E44E-0440-81D6-12864F10C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6560" yWindow="760" windowWidth="21060" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -596,44 +596,44 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1">
+        <v>2012</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+      <c r="J1" s="1">
         <v>2018</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="M1" s="1">
         <v>2021</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1">
+      <c r="P1">
         <v>2024</v>
-      </c>
-      <c r="K1">
-        <v>2012</v>
-      </c>
-      <c r="L1">
-        <v>2013</v>
-      </c>
-      <c r="M1">
-        <v>2014</v>
-      </c>
-      <c r="N1">
-        <v>2015</v>
-      </c>
-      <c r="O1">
-        <v>2016</v>
-      </c>
-      <c r="P1">
-        <v>2017</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -647,43 +647,43 @@
         <v>12</v>
       </c>
       <c r="D2">
+        <v>1908.894871794872</v>
+      </c>
+      <c r="E2">
+        <v>2155.5867256637166</v>
+      </c>
+      <c r="F2">
+        <v>2236.3767857142857</v>
+      </c>
+      <c r="G2">
+        <v>2077.4663636363634</v>
+      </c>
+      <c r="H2">
+        <v>2222.3819047619049</v>
+      </c>
+      <c r="I2">
+        <v>2669.4363636363637</v>
+      </c>
+      <c r="J2">
         <v>3039.9739583333335</v>
       </c>
-      <c r="E2">
+      <c r="K2">
         <v>3162.1846938775507</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>3132.0701030927835</v>
       </c>
-      <c r="G2">
+      <c r="M2">
         <v>3784.5354166666671</v>
       </c>
-      <c r="H2">
+      <c r="N2">
         <v>4037.9918367346941</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>4129.0843749999995</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>4045.6937499999999</v>
-      </c>
-      <c r="K2">
-        <v>1908.894871794872</v>
-      </c>
-      <c r="L2">
-        <v>2155.5867256637166</v>
-      </c>
-      <c r="M2">
-        <v>2236.3767857142857</v>
-      </c>
-      <c r="N2">
-        <v>2077.4663636363634</v>
-      </c>
-      <c r="O2">
-        <v>2222.3819047619049</v>
-      </c>
-      <c r="P2">
-        <v>2669.4363636363637</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -697,43 +697,43 @@
         <v>12</v>
       </c>
       <c r="D3">
+        <v>1830.6145299145298</v>
+      </c>
+      <c r="E3">
+        <v>2069.5070796460177</v>
+      </c>
+      <c r="F3">
+        <v>2151.3535714285713</v>
+      </c>
+      <c r="G3">
+        <v>2018.6572727272726</v>
+      </c>
+      <c r="H3">
+        <v>2154.0828571428574</v>
+      </c>
+      <c r="I3">
+        <v>2573.880808080808</v>
+      </c>
+      <c r="J3">
         <v>2923.1427083333333</v>
       </c>
-      <c r="E3">
+      <c r="K3">
         <v>2999.9051020408165</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>2974.6278350515468</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>3556.7249999999999</v>
       </c>
-      <c r="H3">
+      <c r="N3">
         <v>3793.8857142857141</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>3892.4958333333329</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>3814.9729166666671</v>
-      </c>
-      <c r="K3">
-        <v>1830.6145299145298</v>
-      </c>
-      <c r="L3">
-        <v>2069.5070796460177</v>
-      </c>
-      <c r="M3">
-        <v>2151.3535714285713</v>
-      </c>
-      <c r="N3">
-        <v>2018.6572727272726</v>
-      </c>
-      <c r="O3">
-        <v>2154.0828571428574</v>
-      </c>
-      <c r="P3">
-        <v>2573.880808080808</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -747,43 +747,43 @@
         <v>12</v>
       </c>
       <c r="D4">
+        <v>96.357264957264945</v>
+      </c>
+      <c r="E4">
+        <v>103.1283185840708</v>
+      </c>
+      <c r="F4">
+        <v>105.21160714285715</v>
+      </c>
+      <c r="G4">
+        <v>90.960909090909098</v>
+      </c>
+      <c r="H4">
+        <v>96.664761904761903</v>
+      </c>
+      <c r="I4">
+        <v>145.34848484848484</v>
+      </c>
+      <c r="J4">
         <v>182.91249999999999</v>
       </c>
-      <c r="E4">
+      <c r="K4">
         <v>193.23877551020411</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>194.39072164948456</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>257.67708333333331</v>
       </c>
-      <c r="H4">
+      <c r="N4">
         <v>265.25714285714287</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>269.09062499999999</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <v>271.91979166666664</v>
-      </c>
-      <c r="K4">
-        <v>96.357264957264945</v>
-      </c>
-      <c r="L4">
-        <v>103.1283185840708</v>
-      </c>
-      <c r="M4">
-        <v>105.21160714285715</v>
-      </c>
-      <c r="N4">
-        <v>90.960909090909098</v>
-      </c>
-      <c r="O4">
-        <v>96.664761904761903</v>
-      </c>
-      <c r="P4">
-        <v>145.34848484848484</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -797,43 +797,43 @@
         <v>12</v>
       </c>
       <c r="D5">
+        <v>108.26581196581196</v>
+      </c>
+      <c r="E5">
+        <v>116.17610619469026</v>
+      </c>
+      <c r="F5">
+        <v>120.31428571428572</v>
+      </c>
+      <c r="G5">
+        <v>111.51272727272728</v>
+      </c>
+      <c r="H5">
+        <v>117.68380952380951</v>
+      </c>
+      <c r="I5">
+        <v>145.56363636363636</v>
+      </c>
+      <c r="J5">
         <v>176.92499999999998</v>
       </c>
-      <c r="E5">
+      <c r="K5">
         <v>189.88469387755103</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>192.87216494845359</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>251.93333333333331</v>
       </c>
-      <c r="H5">
+      <c r="N5">
         <v>262.59183673469386</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>268.05208333333331</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>268.45937499999997</v>
-      </c>
-      <c r="K5">
-        <v>108.26581196581196</v>
-      </c>
-      <c r="L5">
-        <v>116.17610619469026</v>
-      </c>
-      <c r="M5">
-        <v>120.31428571428572</v>
-      </c>
-      <c r="N5">
-        <v>111.51272727272728</v>
-      </c>
-      <c r="O5">
-        <v>117.68380952380951</v>
-      </c>
-      <c r="P5">
-        <v>145.56363636363636</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -847,43 +847,43 @@
         <v>12</v>
       </c>
       <c r="D6">
+        <v>78.661538461538456</v>
+      </c>
+      <c r="E6">
+        <v>83.033628318584064</v>
+      </c>
+      <c r="F6">
+        <v>86.646428571428572</v>
+      </c>
+      <c r="G6">
+        <v>81.13272727272728</v>
+      </c>
+      <c r="H6">
+        <v>83.556190476190466</v>
+      </c>
+      <c r="I6">
+        <v>104.35858585858585</v>
+      </c>
+      <c r="J6">
         <v>126.36354166666666</v>
       </c>
-      <c r="E6">
+      <c r="K6">
         <v>139.49489795918367</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>144.32474226804123</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>188.69583333333333</v>
       </c>
-      <c r="H6">
+      <c r="N6">
         <v>197.21632653061226</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>203.39583333333334</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>201.82291666666666</v>
-      </c>
-      <c r="K6">
-        <v>78.661538461538456</v>
-      </c>
-      <c r="L6">
-        <v>83.033628318584064</v>
-      </c>
-      <c r="M6">
-        <v>86.646428571428572</v>
-      </c>
-      <c r="N6">
-        <v>81.13272727272728</v>
-      </c>
-      <c r="O6">
-        <v>83.556190476190466</v>
-      </c>
-      <c r="P6">
-        <v>104.35858585858585</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -897,43 +897,43 @@
         <v>22</v>
       </c>
       <c r="D7">
+        <v>10.841880341880342</v>
+      </c>
+      <c r="E7">
+        <v>11.393805309734514</v>
+      </c>
+      <c r="F7">
+        <v>12.999107142857143</v>
+      </c>
+      <c r="G7">
+        <v>12.896363636363635</v>
+      </c>
+      <c r="H7">
+        <v>12.939047619047619</v>
+      </c>
+      <c r="I7">
+        <v>13.560606060606061</v>
+      </c>
+      <c r="J7">
         <v>13.711458333333333</v>
       </c>
-      <c r="E7">
+      <c r="K7">
         <v>13.408163265306122</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>13.61237113402062</v>
       </c>
-      <c r="G7">
+      <c r="M7">
         <v>13.63125</v>
       </c>
-      <c r="H7">
+      <c r="N7">
         <v>13.191836734693878</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>13.748958333333334</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>13.505208333333334</v>
-      </c>
-      <c r="K7">
-        <v>10.841880341880342</v>
-      </c>
-      <c r="L7">
-        <v>11.393805309734514</v>
-      </c>
-      <c r="M7">
-        <v>12.999107142857143</v>
-      </c>
-      <c r="N7">
-        <v>12.896363636363635</v>
-      </c>
-      <c r="O7">
-        <v>12.939047619047619</v>
-      </c>
-      <c r="P7">
-        <v>13.560606060606061</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -947,43 +947,43 @@
         <v>22</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>1.3458333333333332</v>
       </c>
-      <c r="E8">
+      <c r="K8">
         <v>1.4591836734693877</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>1.6185567010309279</v>
       </c>
-      <c r="G8">
+      <c r="M8">
         <v>1.7927083333333333</v>
       </c>
-      <c r="H8">
+      <c r="N8">
         <v>1.9346938775510203</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>2.0895833333333331</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <v>2.1802083333333333</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -997,43 +997,43 @@
         <v>22</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>3.9808080808080812</v>
+      </c>
+      <c r="J9">
         <v>4.3999999999999995</v>
       </c>
-      <c r="E9">
+      <c r="K9">
         <v>4.4571428571428573</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>4.3721649484536087</v>
       </c>
-      <c r="G9">
+      <c r="M9">
         <v>4.5697916666666663</v>
       </c>
-      <c r="H9">
+      <c r="N9">
         <v>4.5795918367346937</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>4.7302083333333336</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>4.7437499999999995</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>3.9808080808080812</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1047,43 +1047,43 @@
         <v>12</v>
       </c>
       <c r="D10">
+        <v>82.649572649572647</v>
+      </c>
+      <c r="E10">
+        <v>94.973451327433622</v>
+      </c>
+      <c r="F10">
+        <v>166.58660714285716</v>
+      </c>
+      <c r="G10">
+        <v>177.77363636363634</v>
+      </c>
+      <c r="H10">
+        <v>194.53142857142856</v>
+      </c>
+      <c r="I10">
+        <v>223.1010101010101</v>
+      </c>
+      <c r="J10">
         <v>254.88958333333335</v>
       </c>
-      <c r="E10">
+      <c r="K10">
         <v>272.25816326530611</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>282.15154639175256</v>
       </c>
-      <c r="G10">
+      <c r="M10">
         <v>322.546875</v>
       </c>
-      <c r="H10">
+      <c r="N10">
         <v>338.56020408163266</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>383.58229166666666</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>395.75104166666665</v>
-      </c>
-      <c r="K10">
-        <v>82.649572649572647</v>
-      </c>
-      <c r="L10">
-        <v>94.973451327433622</v>
-      </c>
-      <c r="M10">
-        <v>166.58660714285716</v>
-      </c>
-      <c r="N10">
-        <v>177.77363636363634</v>
-      </c>
-      <c r="O10">
-        <v>194.53142857142856</v>
-      </c>
-      <c r="P10">
-        <v>223.1010101010101</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1097,43 +1097,43 @@
         <v>12</v>
       </c>
       <c r="D11">
+        <v>416.99401709401712</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>529.73</v>
+      </c>
+      <c r="H11">
+        <v>584.42095238095237</v>
+      </c>
+      <c r="I11">
+        <v>694.86262626262624</v>
+      </c>
+      <c r="J11">
         <v>745.07708333333323</v>
       </c>
-      <c r="E11">
+      <c r="K11">
         <v>757.23877551020405</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>812.81134020618549</v>
       </c>
-      <c r="G11">
+      <c r="M11">
         <v>967.45208333333323</v>
       </c>
-      <c r="H11">
+      <c r="N11">
         <v>1025.4397959183675</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>1093.9833333333333</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>1114.7437499999999</v>
-      </c>
-      <c r="K11">
-        <v>416.99401709401712</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>529.73</v>
-      </c>
-      <c r="O11">
-        <v>584.42095238095237</v>
-      </c>
-      <c r="P11">
-        <v>694.86262626262624</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1147,43 +1147,43 @@
         <v>12</v>
       </c>
       <c r="D12">
+        <v>32.780341880341879</v>
+      </c>
+      <c r="E12">
+        <v>37.901769911504424</v>
+      </c>
+      <c r="F12">
+        <v>40.973214285714285</v>
+      </c>
+      <c r="G12">
+        <v>44.87</v>
+      </c>
+      <c r="H12">
+        <v>50.087619047619043</v>
+      </c>
+      <c r="I12">
+        <v>61.414141414141412</v>
+      </c>
+      <c r="J12">
         <v>72.355208333333337</v>
       </c>
-      <c r="E12">
+      <c r="K12">
         <v>83.575510204081624</v>
       </c>
-      <c r="F12">
+      <c r="L12">
         <v>87.237113402061851</v>
       </c>
-      <c r="G12">
+      <c r="M12">
         <v>98.079166666666666</v>
       </c>
-      <c r="H12">
+      <c r="N12">
         <v>104.90816326530613</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>112.621875</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>113.25625000000001</v>
-      </c>
-      <c r="K12">
-        <v>32.780341880341879</v>
-      </c>
-      <c r="L12">
-        <v>37.901769911504424</v>
-      </c>
-      <c r="M12">
-        <v>40.973214285714285</v>
-      </c>
-      <c r="N12">
-        <v>44.87</v>
-      </c>
-      <c r="O12">
-        <v>50.087619047619043</v>
-      </c>
-      <c r="P12">
-        <v>61.414141414141412</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1197,43 +1197,43 @@
         <v>23</v>
       </c>
       <c r="D13">
+        <v>0.15920256410256411</v>
+      </c>
+      <c r="E13">
+        <v>0.2257637168141593</v>
+      </c>
+      <c r="F13">
+        <v>0.30352678571428571</v>
+      </c>
+      <c r="G13">
+        <v>0.37272727272727274</v>
+      </c>
+      <c r="H13">
+        <v>0.46476190476190471</v>
+      </c>
+      <c r="I13">
+        <v>0.58080808080808077</v>
+      </c>
+      <c r="J13">
         <v>0.703125</v>
       </c>
-      <c r="E13">
+      <c r="K13">
         <v>0.78775510204081634</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.91237113402061853</v>
       </c>
-      <c r="G13">
+      <c r="M13">
         <v>1.0875000000000001</v>
       </c>
-      <c r="H13">
+      <c r="N13">
         <v>1.2540816326530613</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>1.45625</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>1.6156249999999999</v>
-      </c>
-      <c r="K13">
-        <v>0.15920256410256411</v>
-      </c>
-      <c r="L13">
-        <v>0.2257637168141593</v>
-      </c>
-      <c r="M13">
-        <v>0.30352678571428571</v>
-      </c>
-      <c r="N13">
-        <v>0.37272727272727274</v>
-      </c>
-      <c r="O13">
-        <v>0.46476190476190471</v>
-      </c>
-      <c r="P13">
-        <v>0.58080808080808077</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1247,43 +1247,43 @@
         <v>12</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>179.50272727272727</v>
+      </c>
+      <c r="H14">
+        <v>184.46190476190475</v>
+      </c>
+      <c r="I14">
+        <v>199.27777777777777</v>
+      </c>
+      <c r="J14">
         <v>215.54375000000002</v>
       </c>
-      <c r="E14">
+      <c r="K14">
         <v>210.72448979591837</v>
       </c>
-      <c r="F14">
+      <c r="L14">
         <v>197.84845360824741</v>
       </c>
-      <c r="G14">
+      <c r="M14">
         <v>235.10833333333335</v>
       </c>
-      <c r="H14">
+      <c r="N14">
         <v>275.63265306122452</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>264.00208333333336</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>264.09270833333335</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>179.50272727272727</v>
-      </c>
-      <c r="O14">
-        <v>184.46190476190475</v>
-      </c>
-      <c r="P14">
-        <v>199.27777777777777</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1297,43 +1297,43 @@
         <v>12</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.3009090909090909</v>
+      </c>
+      <c r="H15">
+        <v>0.55238095238095242</v>
+      </c>
+      <c r="I15">
+        <v>0.69292929292929284</v>
+      </c>
+      <c r="J15">
         <v>0.4916666666666667</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>1.6237113402061856</v>
       </c>
-      <c r="G15">
+      <c r="M15">
         <v>1.3114583333333334</v>
       </c>
-      <c r="H15">
+      <c r="N15">
         <v>1.5959183673469388</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>1.7947916666666668</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>3.4010416666666665</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0.3009090909090909</v>
-      </c>
-      <c r="O15">
-        <v>0.55238095238095242</v>
-      </c>
-      <c r="P15">
-        <v>0.69292929292929284</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1347,43 +1347,43 @@
         <v>47</v>
       </c>
       <c r="D16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E16">
+        <v>7.6</v>
+      </c>
+      <c r="F16">
+        <v>7.2</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>5.4</v>
+      </c>
+      <c r="I16">
+        <v>5.9</v>
+      </c>
+      <c r="J16">
         <v>6.33</v>
       </c>
-      <c r="E16">
+      <c r="K16">
         <v>6.49</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>5.99</v>
       </c>
-      <c r="G16">
+      <c r="M16">
         <v>7.09</v>
       </c>
-      <c r="H16">
+      <c r="N16">
         <v>6.98</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>6.6</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>6.2</v>
-      </c>
-      <c r="K16">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="L16">
-        <v>7.6</v>
-      </c>
-      <c r="M16">
-        <v>7.2</v>
-      </c>
-      <c r="N16">
-        <v>6</v>
-      </c>
-      <c r="O16">
-        <v>5.4</v>
-      </c>
-      <c r="P16">
-        <v>5.9</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1397,43 +1397,43 @@
         <v>47</v>
       </c>
       <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>4.97</v>
       </c>
-      <c r="E17">
+      <c r="K17">
         <v>5.37</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>5.03</v>
       </c>
-      <c r="G17">
+      <c r="M17">
         <v>6.22</v>
       </c>
-      <c r="H17">
+      <c r="N17">
         <v>6.26</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>5.9</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>5.8</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1447,43 +1447,43 @@
         <v>47</v>
       </c>
       <c r="D18">
-        <v>4.03</v>
+        <v>5.7</v>
       </c>
       <c r="E18">
-        <v>4.04</v>
+        <v>5.3</v>
       </c>
       <c r="F18">
-        <v>3.71</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>4.1399999999999997</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="I18">
         <v>3.8</v>
       </c>
       <c r="J18">
+        <v>4.03</v>
+      </c>
+      <c r="K18">
+        <v>4.04</v>
+      </c>
+      <c r="L18">
+        <v>3.71</v>
+      </c>
+      <c r="M18">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="N18">
+        <v>4.05</v>
+      </c>
+      <c r="O18">
+        <v>3.8</v>
+      </c>
+      <c r="P18">
         <v>3.6</v>
-      </c>
-      <c r="K18">
-        <v>5.7</v>
-      </c>
-      <c r="L18">
-        <v>5.3</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>4</v>
-      </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>3.8</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1497,43 +1497,43 @@
         <v>47</v>
       </c>
       <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>4.8</v>
+      </c>
+      <c r="F19">
+        <v>4.7</v>
+      </c>
+      <c r="G19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H19">
+        <v>4.3</v>
+      </c>
+      <c r="I19">
+        <v>5.4</v>
+      </c>
+      <c r="J19">
         <v>6.02</v>
       </c>
-      <c r="E19">
+      <c r="K19">
         <v>6.11</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>6.21</v>
       </c>
-      <c r="G19">
+      <c r="M19">
         <v>6.81</v>
       </c>
-      <c r="H19">
+      <c r="N19">
         <v>6.57</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>6.5</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>6.7</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>4.8</v>
-      </c>
-      <c r="M19">
-        <v>4.7</v>
-      </c>
-      <c r="N19">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="O19">
-        <v>4.3</v>
-      </c>
-      <c r="P19">
-        <v>5.4</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1547,43 +1547,43 @@
         <v>47</v>
       </c>
       <c r="D20">
+        <v>5.9</v>
+      </c>
+      <c r="E20">
+        <v>5.6</v>
+      </c>
+      <c r="F20">
+        <v>5.6</v>
+      </c>
+      <c r="G20">
+        <v>5.6</v>
+      </c>
+      <c r="H20">
+        <v>5.5</v>
+      </c>
+      <c r="I20">
+        <v>5.8</v>
+      </c>
+      <c r="J20">
         <v>6.14</v>
       </c>
-      <c r="E20">
+      <c r="K20">
         <v>6.33</v>
       </c>
-      <c r="F20">
+      <c r="L20">
         <v>6.48</v>
       </c>
-      <c r="G20">
+      <c r="M20">
         <v>7.08</v>
       </c>
-      <c r="H20">
+      <c r="N20">
         <v>6.92</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>6.9</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <v>7</v>
-      </c>
-      <c r="K20">
-        <v>5.9</v>
-      </c>
-      <c r="L20">
-        <v>5.6</v>
-      </c>
-      <c r="M20">
-        <v>5.6</v>
-      </c>
-      <c r="N20">
-        <v>5.6</v>
-      </c>
-      <c r="O20">
-        <v>5.5</v>
-      </c>
-      <c r="P20">
-        <v>5.8</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1597,43 +1597,43 @@
         <v>47</v>
       </c>
       <c r="D21">
+        <v>2.1</v>
+      </c>
+      <c r="E21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F21">
+        <v>2.4</v>
+      </c>
+      <c r="G21">
+        <v>2.9</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>2.6</v>
+      </c>
+      <c r="J21">
         <v>2.4500000000000002</v>
       </c>
-      <c r="E21">
+      <c r="K21">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>2.52</v>
       </c>
-      <c r="G21">
+      <c r="M21">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H21">
+      <c r="N21">
         <v>2.25</v>
       </c>
-      <c r="I21">
+      <c r="O21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J21">
+      <c r="P21">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="K21">
-        <v>2.1</v>
-      </c>
-      <c r="L21">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M21">
-        <v>2.4</v>
-      </c>
-      <c r="N21">
-        <v>2.9</v>
-      </c>
-      <c r="O21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>2.6</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1647,43 +1647,43 @@
         <v>47</v>
       </c>
       <c r="D22">
+        <v>95.4</v>
+      </c>
+      <c r="E22">
+        <v>95.4</v>
+      </c>
+      <c r="F22">
+        <v>95.4</v>
+      </c>
+      <c r="G22">
+        <v>96</v>
+      </c>
+      <c r="H22">
+        <v>95.5</v>
+      </c>
+      <c r="I22">
+        <v>94.8</v>
+      </c>
+      <c r="J22">
         <v>94.71</v>
       </c>
-      <c r="E22">
+      <c r="K22">
         <v>94.86</v>
       </c>
-      <c r="F22">
+      <c r="L22">
         <v>94.97</v>
       </c>
-      <c r="G22">
+      <c r="M22">
         <v>93.98</v>
       </c>
-      <c r="H22">
+      <c r="N22">
         <v>93.95</v>
       </c>
-      <c r="I22">
+      <c r="O22">
         <v>94.3</v>
       </c>
-      <c r="J22">
+      <c r="P22">
         <v>94.3</v>
-      </c>
-      <c r="K22">
-        <v>95.4</v>
-      </c>
-      <c r="L22">
-        <v>95.4</v>
-      </c>
-      <c r="M22">
-        <v>95.4</v>
-      </c>
-      <c r="N22">
-        <v>96</v>
-      </c>
-      <c r="O22">
-        <v>95.5</v>
-      </c>
-      <c r="P22">
-        <v>94.8</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1697,43 +1697,43 @@
         <v>47</v>
       </c>
       <c r="D23">
+        <v>11.7</v>
+      </c>
+      <c r="E23">
+        <v>11.2</v>
+      </c>
+      <c r="F23">
+        <v>10.1</v>
+      </c>
+      <c r="G23">
+        <v>22.3</v>
+      </c>
+      <c r="H23">
+        <v>7.4</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
         <v>6.43</v>
       </c>
-      <c r="E23">
+      <c r="K23">
         <v>8.26</v>
       </c>
-      <c r="F23">
+      <c r="L23">
         <v>8.36</v>
       </c>
-      <c r="G23">
+      <c r="M23">
         <v>8.8699999999999992</v>
       </c>
-      <c r="H23">
+      <c r="N23">
         <v>7.08</v>
       </c>
-      <c r="I23">
+      <c r="O23">
         <v>6.2</v>
       </c>
-      <c r="J23">
+      <c r="P23">
         <v>5.8</v>
-      </c>
-      <c r="K23">
-        <v>11.7</v>
-      </c>
-      <c r="L23">
-        <v>11.2</v>
-      </c>
-      <c r="M23">
-        <v>10.1</v>
-      </c>
-      <c r="N23">
-        <v>22.3</v>
-      </c>
-      <c r="O23">
-        <v>7.4</v>
-      </c>
-      <c r="P23">
-        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1747,43 +1747,43 @@
         <v>47</v>
       </c>
       <c r="D24">
+        <v>19.5</v>
+      </c>
+      <c r="E24">
+        <v>12.9</v>
+      </c>
+      <c r="F24">
+        <v>12.6</v>
+      </c>
+      <c r="G24">
+        <v>2.5</v>
+      </c>
+      <c r="H24">
+        <v>8.4</v>
+      </c>
+      <c r="I24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J24">
         <v>6.94</v>
       </c>
-      <c r="E24">
+      <c r="K24">
         <v>6.59</v>
       </c>
-      <c r="F24">
+      <c r="L24">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G24">
+      <c r="M24">
         <v>13.86</v>
       </c>
-      <c r="H24">
+      <c r="N24">
         <v>9.91</v>
       </c>
-      <c r="I24">
+      <c r="O24">
         <v>11.2</v>
       </c>
-      <c r="J24">
+      <c r="P24">
         <v>16.100000000000001</v>
-      </c>
-      <c r="K24">
-        <v>19.5</v>
-      </c>
-      <c r="L24">
-        <v>12.9</v>
-      </c>
-      <c r="M24">
-        <v>12.6</v>
-      </c>
-      <c r="N24">
-        <v>2.5</v>
-      </c>
-      <c r="O24">
-        <v>8.4</v>
-      </c>
-      <c r="P24">
-        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>11.2</v>
       </c>
-      <c r="J25">
+      <c r="P25">
         <v>11</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1847,43 +1847,43 @@
         <v>47</v>
       </c>
       <c r="D26">
+        <v>62.7</v>
+      </c>
+      <c r="E26">
+        <v>63.4</v>
+      </c>
+      <c r="F26">
+        <v>63</v>
+      </c>
+      <c r="G26">
+        <v>66.7</v>
+      </c>
+      <c r="H26">
+        <v>66.7</v>
+      </c>
+      <c r="I26">
+        <v>66.2</v>
+      </c>
+      <c r="J26">
         <v>65.7</v>
       </c>
-      <c r="E26">
+      <c r="K26">
         <v>65.02</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>64.290000000000006</v>
       </c>
-      <c r="G26">
+      <c r="M26">
         <v>64.73</v>
       </c>
-      <c r="H26">
+      <c r="N26">
         <v>64.53</v>
       </c>
-      <c r="I26">
+      <c r="O26">
         <v>64.599999999999994</v>
       </c>
-      <c r="J26">
+      <c r="P26">
         <v>65</v>
-      </c>
-      <c r="K26">
-        <v>62.7</v>
-      </c>
-      <c r="L26">
-        <v>63.4</v>
-      </c>
-      <c r="M26">
-        <v>63</v>
-      </c>
-      <c r="N26">
-        <v>66.7</v>
-      </c>
-      <c r="O26">
-        <v>66.7</v>
-      </c>
-      <c r="P26">
-        <v>66.2</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1897,43 +1897,43 @@
         <v>48</v>
       </c>
       <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>3.9</v>
+      </c>
+      <c r="F27">
+        <v>3.7</v>
+      </c>
+      <c r="G27">
+        <v>3.4</v>
+      </c>
+      <c r="H27">
+        <v>3.5</v>
+      </c>
+      <c r="I27">
+        <v>3.7</v>
+      </c>
+      <c r="J27">
         <v>3.96</v>
       </c>
-      <c r="E27">
+      <c r="K27">
         <v>4.1100000000000003</v>
       </c>
-      <c r="F27">
+      <c r="L27">
         <v>4.2</v>
       </c>
-      <c r="G27">
+      <c r="M27">
         <v>5.23</v>
       </c>
-      <c r="H27">
+      <c r="N27">
         <v>5.32</v>
       </c>
-      <c r="I27">
+      <c r="O27">
         <v>5.2</v>
       </c>
-      <c r="J27">
+      <c r="P27">
         <v>5.3</v>
-      </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-      <c r="L27">
-        <v>3.9</v>
-      </c>
-      <c r="M27">
-        <v>3.7</v>
-      </c>
-      <c r="N27">
-        <v>3.4</v>
-      </c>
-      <c r="O27">
-        <v>3.5</v>
-      </c>
-      <c r="P27">
-        <v>3.7</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -1947,43 +1947,43 @@
         <v>47</v>
       </c>
       <c r="D28">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E28">
+        <v>9.5</v>
+      </c>
+      <c r="F28">
+        <v>11.4</v>
+      </c>
+      <c r="G28">
+        <v>12.8</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>9.4</v>
+      </c>
+      <c r="J28">
         <v>8.1</v>
       </c>
-      <c r="E28">
+      <c r="K28">
         <v>11.05</v>
       </c>
-      <c r="F28">
+      <c r="L28">
         <v>10.84</v>
       </c>
-      <c r="G28">
+      <c r="M28">
         <v>8.27</v>
       </c>
-      <c r="H28">
+      <c r="N28">
         <v>7.47</v>
       </c>
-      <c r="I28">
+      <c r="O28">
         <v>5.8</v>
       </c>
-      <c r="J28">
+      <c r="P28">
         <v>5.0999999999999996</v>
-      </c>
-      <c r="K28">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L28">
-        <v>9.5</v>
-      </c>
-      <c r="M28">
-        <v>11.4</v>
-      </c>
-      <c r="N28">
-        <v>12.8</v>
-      </c>
-      <c r="O28">
-        <v>7</v>
-      </c>
-      <c r="P28">
-        <v>9.4</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1997,43 +1997,43 @@
         <v>47</v>
       </c>
       <c r="D29">
+        <v>1.7</v>
+      </c>
+      <c r="E29">
+        <v>1.8</v>
+      </c>
+      <c r="F29">
+        <v>1.8</v>
+      </c>
+      <c r="G29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J29">
         <v>2.38</v>
       </c>
-      <c r="E29">
+      <c r="K29">
         <v>2.64</v>
       </c>
-      <c r="F29">
+      <c r="L29">
         <v>2.79</v>
       </c>
-      <c r="G29">
+      <c r="M29">
         <v>2.59</v>
       </c>
-      <c r="H29">
+      <c r="N29">
         <v>2.6</v>
       </c>
-      <c r="I29">
+      <c r="O29">
         <v>2.73</v>
       </c>
-      <c r="J29">
+      <c r="P29">
         <v>2.8</v>
-      </c>
-      <c r="K29">
-        <v>1.7</v>
-      </c>
-      <c r="L29">
-        <v>1.8</v>
-      </c>
-      <c r="M29">
-        <v>1.8</v>
-      </c>
-      <c r="N29">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O29">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="P29">
-        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2047,43 +2047,43 @@
         <v>50</v>
       </c>
       <c r="D30">
+        <v>247.2</v>
+      </c>
+      <c r="E30">
+        <v>272</v>
+      </c>
+      <c r="F30">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="G30">
+        <v>335.4</v>
+      </c>
+      <c r="H30">
+        <v>371.6</v>
+      </c>
+      <c r="I30">
+        <v>406.6</v>
+      </c>
+      <c r="J30">
         <v>462.41</v>
       </c>
-      <c r="E30">
+      <c r="K30">
         <v>506.8</v>
       </c>
-      <c r="F30">
+      <c r="L30">
         <v>521.1</v>
       </c>
-      <c r="G30">
+      <c r="M30">
         <v>575.59</v>
       </c>
-      <c r="H30">
+      <c r="N30">
         <v>626.03</v>
       </c>
-      <c r="I30">
+      <c r="O30">
         <v>652.5</v>
       </c>
-      <c r="J30">
+      <c r="P30">
         <v>702.2</v>
-      </c>
-      <c r="K30">
-        <v>247.2</v>
-      </c>
-      <c r="L30">
-        <v>272</v>
-      </c>
-      <c r="M30">
-        <v>265.60000000000002</v>
-      </c>
-      <c r="N30">
-        <v>335.4</v>
-      </c>
-      <c r="O30">
-        <v>371.6</v>
-      </c>
-      <c r="P30">
-        <v>406.6</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2097,43 +2097,43 @@
         <v>50</v>
       </c>
       <c r="D31">
+        <v>9.9</v>
+      </c>
+      <c r="E31">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F31">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G31">
+        <v>8.5</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31">
+        <v>10.6</v>
+      </c>
+      <c r="J31">
         <v>13.39</v>
       </c>
-      <c r="E31">
+      <c r="K31">
         <v>14.82</v>
       </c>
-      <c r="F31">
+      <c r="L31">
         <v>14.11</v>
       </c>
-      <c r="G31">
+      <c r="M31">
         <v>18.34</v>
       </c>
-      <c r="H31">
+      <c r="N31">
         <v>19.8</v>
       </c>
-      <c r="I31">
+      <c r="O31">
         <v>19.3</v>
       </c>
-      <c r="J31">
+      <c r="P31">
         <v>19.7</v>
-      </c>
-      <c r="K31">
-        <v>9.9</v>
-      </c>
-      <c r="L31">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="M31">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="N31">
-        <v>8.5</v>
-      </c>
-      <c r="O31">
-        <v>9</v>
-      </c>
-      <c r="P31">
-        <v>10.6</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2147,43 +2147,43 @@
         <v>50</v>
       </c>
       <c r="D32">
+        <v>7.6</v>
+      </c>
+      <c r="E32">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F32">
+        <v>8.9</v>
+      </c>
+      <c r="G32">
+        <v>9.4</v>
+      </c>
+      <c r="H32">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I32">
+        <v>11.2</v>
+      </c>
+      <c r="J32">
         <v>12.66</v>
       </c>
-      <c r="E32">
+      <c r="K32">
         <v>13.9</v>
       </c>
-      <c r="F32">
+      <c r="L32">
         <v>14.88</v>
       </c>
-      <c r="G32">
+      <c r="M32">
         <v>16.559999999999999</v>
       </c>
-      <c r="H32">
+      <c r="N32">
         <v>17.670000000000002</v>
       </c>
-      <c r="I32">
+      <c r="O32">
         <v>18.899999999999999</v>
       </c>
-      <c r="J32">
+      <c r="P32">
         <v>19.8</v>
-      </c>
-      <c r="K32">
-        <v>7.6</v>
-      </c>
-      <c r="L32">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M32">
-        <v>8.9</v>
-      </c>
-      <c r="N32">
-        <v>9.4</v>
-      </c>
-      <c r="O32">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="P32">
-        <v>11.2</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2197,43 +2197,43 @@
         <v>49</v>
       </c>
       <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>41.8</v>
+      </c>
+      <c r="F33">
+        <v>40.5</v>
+      </c>
+      <c r="G33">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="H33">
+        <v>44.6</v>
+      </c>
+      <c r="I33">
+        <v>50.7</v>
+      </c>
+      <c r="J33">
         <v>53.78</v>
       </c>
-      <c r="E33">
+      <c r="K33">
         <v>56.31</v>
       </c>
-      <c r="F33">
+      <c r="L33">
         <v>59.45</v>
       </c>
-      <c r="G33">
+      <c r="M33">
         <v>70.44</v>
       </c>
-      <c r="H33">
+      <c r="N33">
         <v>77.31</v>
       </c>
-      <c r="I33">
+      <c r="O33">
         <v>78.7</v>
       </c>
-      <c r="J33">
+      <c r="P33">
         <v>81.7</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>41.8</v>
-      </c>
-      <c r="M33">
-        <v>40.5</v>
-      </c>
-      <c r="N33">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="O33">
-        <v>44.6</v>
-      </c>
-      <c r="P33">
-        <v>50.7</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2247,43 +2247,43 @@
         <v>47</v>
       </c>
       <c r="D34">
+        <v>11.9</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>10.3</v>
+      </c>
+      <c r="G34">
+        <v>10.9</v>
+      </c>
+      <c r="H34">
+        <v>10.1</v>
+      </c>
+      <c r="I34">
         <v>8.4</v>
       </c>
-      <c r="E34">
+      <c r="J34">
+        <v>8.4</v>
+      </c>
+      <c r="K34">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F34">
+      <c r="L34">
         <v>9.31</v>
       </c>
-      <c r="G34">
+      <c r="M34">
         <v>8.52</v>
       </c>
-      <c r="H34">
+      <c r="N34">
         <v>9.15</v>
       </c>
-      <c r="I34">
+      <c r="O34">
         <v>10.199999999999999</v>
       </c>
-      <c r="J34">
+      <c r="P34">
         <v>10.9</v>
-      </c>
-      <c r="K34">
-        <v>11.9</v>
-      </c>
-      <c r="L34">
-        <v>11</v>
-      </c>
-      <c r="M34">
-        <v>10.3</v>
-      </c>
-      <c r="N34">
-        <v>10.9</v>
-      </c>
-      <c r="O34">
-        <v>10.1</v>
-      </c>
-      <c r="P34">
-        <v>8.4</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2297,43 +2297,43 @@
         <v>47</v>
       </c>
       <c r="D35">
+        <v>6.8</v>
+      </c>
+      <c r="E35">
+        <v>6.9</v>
+      </c>
+      <c r="F35">
+        <v>7.8</v>
+      </c>
+      <c r="G35">
+        <v>8.9</v>
+      </c>
+      <c r="H35">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="J35">
         <v>8.85</v>
       </c>
-      <c r="E35">
+      <c r="K35">
         <v>9.08</v>
       </c>
-      <c r="F35">
+      <c r="L35">
         <v>9.49</v>
       </c>
-      <c r="G35">
+      <c r="M35">
         <v>9.07</v>
       </c>
-      <c r="H35">
+      <c r="N35">
         <v>8.92</v>
       </c>
-      <c r="I35">
+      <c r="O35">
         <v>9.9</v>
       </c>
-      <c r="J35">
+      <c r="P35">
         <v>10.4</v>
-      </c>
-      <c r="K35">
-        <v>6.8</v>
-      </c>
-      <c r="L35">
-        <v>6.9</v>
-      </c>
-      <c r="M35">
-        <v>7.8</v>
-      </c>
-      <c r="N35">
-        <v>8.9</v>
-      </c>
-      <c r="O35">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="P35">
-        <v>8.8000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_central.xlsx
+++ b/data/data_central.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhz/08-个人文件/国企研究院/202507国资委数据/可视化开发/data_2012-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2854A4C9-E44E-0440-81D6-12864F10C038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F9B14-4977-2649-91C5-E43A7EB7D59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="760" windowWidth="21060" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="1100" windowWidth="21060" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -577,7 +577,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -647,43 +647,43 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1908.894871794872</v>
+        <v>223340.7</v>
       </c>
       <c r="E2">
-        <v>2155.5867256637166</v>
+        <v>243581.3</v>
       </c>
       <c r="F2">
-        <v>2236.3767857142857</v>
+        <v>250474.2</v>
       </c>
       <c r="G2">
-        <v>2077.4663636363634</v>
+        <v>228521.3</v>
       </c>
       <c r="H2">
-        <v>2222.3819047619049</v>
+        <v>233350.1</v>
       </c>
       <c r="I2">
-        <v>2669.4363636363637</v>
+        <v>264274.2</v>
       </c>
       <c r="J2">
-        <v>3039.9739583333335</v>
+        <v>291837.5</v>
       </c>
       <c r="K2">
-        <v>3162.1846938775507</v>
+        <v>309894.09999999998</v>
       </c>
       <c r="L2">
-        <v>3132.0701030927835</v>
+        <v>303810.8</v>
       </c>
       <c r="M2">
-        <v>3784.5354166666671</v>
+        <v>363315.4</v>
       </c>
       <c r="N2">
-        <v>4037.9918367346941</v>
+        <v>395723.2</v>
       </c>
       <c r="O2">
-        <v>4129.0843749999995</v>
+        <v>396392.1</v>
       </c>
       <c r="P2">
-        <v>4045.6937499999999</v>
+        <v>388386.6</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -697,43 +697,43 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>1830.6145299145298</v>
+        <v>214181.9</v>
       </c>
       <c r="E3">
-        <v>2069.5070796460177</v>
+        <v>233854.3</v>
       </c>
       <c r="F3">
-        <v>2151.3535714285713</v>
+        <v>240951.6</v>
       </c>
       <c r="G3">
-        <v>2018.6572727272726</v>
+        <v>222052.3</v>
       </c>
       <c r="H3">
-        <v>2154.0828571428574</v>
+        <v>226178.7</v>
       </c>
       <c r="I3">
-        <v>2573.880808080808</v>
+        <v>254814.2</v>
       </c>
       <c r="J3">
-        <v>2923.1427083333333</v>
+        <v>280621.7</v>
       </c>
       <c r="K3">
-        <v>2999.9051020408165</v>
+        <v>293990.7</v>
       </c>
       <c r="L3">
-        <v>2974.6278350515468</v>
+        <v>288538.90000000002</v>
       </c>
       <c r="M3">
-        <v>3556.7249999999999</v>
+        <v>341445.6</v>
       </c>
       <c r="N3">
-        <v>3793.8857142857141</v>
+        <v>371800.8</v>
       </c>
       <c r="O3">
-        <v>3892.4958333333329</v>
+        <v>373679.6</v>
       </c>
       <c r="P3">
-        <v>3814.9729166666671</v>
+        <v>366237.4</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -747,43 +747,43 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>96.357264957264945</v>
+        <v>11273.8</v>
       </c>
       <c r="E4">
-        <v>103.1283185840708</v>
+        <v>11653.5</v>
       </c>
       <c r="F4">
-        <v>105.21160714285715</v>
+        <v>11783.7</v>
       </c>
       <c r="G4">
-        <v>90.960909090909098</v>
+        <v>10005.700000000001</v>
       </c>
       <c r="H4">
-        <v>96.664761904761903</v>
+        <v>10149.799999999999</v>
       </c>
       <c r="I4">
-        <v>145.34848484848484</v>
+        <v>14389.5</v>
       </c>
       <c r="J4">
-        <v>182.91249999999999</v>
+        <v>17559.599999999999</v>
       </c>
       <c r="K4">
-        <v>193.23877551020411</v>
+        <v>18937.400000000001</v>
       </c>
       <c r="L4">
-        <v>194.39072164948456</v>
+        <v>18855.900000000001</v>
       </c>
       <c r="M4">
-        <v>257.67708333333331</v>
+        <v>24737</v>
       </c>
       <c r="N4">
-        <v>265.25714285714287</v>
+        <v>25995.200000000001</v>
       </c>
       <c r="O4">
-        <v>269.09062499999999</v>
+        <v>25832.7</v>
       </c>
       <c r="P4">
-        <v>271.91979166666664</v>
+        <v>26104.3</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -797,43 +797,43 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>108.26581196581196</v>
+        <v>12667.1</v>
       </c>
       <c r="E5">
-        <v>116.17610619469026</v>
+        <v>13127.9</v>
       </c>
       <c r="F5">
-        <v>120.31428571428572</v>
+        <v>13475.2</v>
       </c>
       <c r="G5">
-        <v>111.51272727272728</v>
+        <v>12266.4</v>
       </c>
       <c r="H5">
-        <v>117.68380952380951</v>
+        <v>12356.8</v>
       </c>
       <c r="I5">
-        <v>145.56363636363636</v>
+        <v>14410.8</v>
       </c>
       <c r="J5">
-        <v>176.92499999999998</v>
+        <v>16984.8</v>
       </c>
       <c r="K5">
-        <v>189.88469387755103</v>
+        <v>18608.7</v>
       </c>
       <c r="L5">
-        <v>192.87216494845359</v>
+        <v>18708.599999999999</v>
       </c>
       <c r="M5">
-        <v>251.93333333333331</v>
+        <v>24185.599999999999</v>
       </c>
       <c r="N5">
-        <v>262.59183673469386</v>
+        <v>25734</v>
       </c>
       <c r="O5">
-        <v>268.05208333333331</v>
+        <v>25733</v>
       </c>
       <c r="P5">
-        <v>268.45937499999997</v>
+        <v>25772.1</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -847,43 +847,43 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>78.661538461538456</v>
+        <v>9203.4</v>
       </c>
       <c r="E6">
-        <v>83.033628318584064</v>
+        <v>9382.7999999999993</v>
       </c>
       <c r="F6">
-        <v>86.646428571428572</v>
+        <v>9704.4</v>
       </c>
       <c r="G6">
-        <v>81.13272727272728</v>
+        <v>8924.6</v>
       </c>
       <c r="H6">
-        <v>83.556190476190466</v>
+        <v>8773.4</v>
       </c>
       <c r="I6">
-        <v>104.35858585858585</v>
+        <v>10331.5</v>
       </c>
       <c r="J6">
-        <v>126.36354166666666</v>
+        <v>12130.9</v>
       </c>
       <c r="K6">
-        <v>139.49489795918367</v>
+        <v>13670.5</v>
       </c>
       <c r="L6">
-        <v>144.32474226804123</v>
+        <v>13999.5</v>
       </c>
       <c r="M6">
-        <v>188.69583333333333</v>
+        <v>18114.8</v>
       </c>
       <c r="N6">
-        <v>197.21632653061226</v>
+        <v>19327.2</v>
       </c>
       <c r="O6">
-        <v>203.39583333333334</v>
+        <v>19526</v>
       </c>
       <c r="P6">
-        <v>201.82291666666666</v>
+        <v>19375</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -897,43 +897,43 @@
         <v>22</v>
       </c>
       <c r="D7">
-        <v>10.841880341880342</v>
+        <v>1268.5</v>
       </c>
       <c r="E7">
-        <v>11.393805309734514</v>
+        <v>1287.5</v>
       </c>
       <c r="F7">
-        <v>12.999107142857143</v>
+        <v>1455.9</v>
       </c>
       <c r="G7">
-        <v>12.896363636363635</v>
+        <v>1418.6</v>
       </c>
       <c r="H7">
-        <v>12.939047619047619</v>
+        <v>1358.6</v>
       </c>
       <c r="I7">
-        <v>13.560606060606061</v>
+        <v>1342.5</v>
       </c>
       <c r="J7">
-        <v>13.711458333333333</v>
+        <v>1316.3</v>
       </c>
       <c r="K7">
-        <v>13.408163265306122</v>
+        <v>1314</v>
       </c>
       <c r="L7">
-        <v>13.61237113402062</v>
+        <v>1320.4</v>
       </c>
       <c r="M7">
-        <v>13.63125</v>
+        <v>1308.5999999999999</v>
       </c>
       <c r="N7">
-        <v>13.191836734693878</v>
+        <v>1292.8</v>
       </c>
       <c r="O7">
-        <v>13.748958333333334</v>
+        <v>1319.9</v>
       </c>
       <c r="P7">
-        <v>13.505208333333334</v>
+        <v>1296.5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -965,25 +965,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.3458333333333332</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="K8">
-        <v>1.4591836734693877</v>
+        <v>143</v>
       </c>
       <c r="L8">
-        <v>1.6185567010309279</v>
+        <v>157</v>
       </c>
       <c r="M8">
-        <v>1.7927083333333333</v>
+        <v>172.1</v>
       </c>
       <c r="N8">
-        <v>1.9346938775510203</v>
+        <v>189.6</v>
       </c>
       <c r="O8">
-        <v>2.0895833333333331</v>
+        <v>200.6</v>
       </c>
       <c r="P8">
-        <v>2.1802083333333333</v>
+        <v>209.3</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1012,28 +1012,28 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.9808080808080812</v>
+        <v>394.1</v>
       </c>
       <c r="J9">
-        <v>4.3999999999999995</v>
+        <v>422.4</v>
       </c>
       <c r="K9">
-        <v>4.4571428571428573</v>
+        <v>436.8</v>
       </c>
       <c r="L9">
-        <v>4.3721649484536087</v>
+        <v>424.1</v>
       </c>
       <c r="M9">
-        <v>4.5697916666666663</v>
+        <v>438.7</v>
       </c>
       <c r="N9">
-        <v>4.5795918367346937</v>
+        <v>448.8</v>
       </c>
       <c r="O9">
-        <v>4.7302083333333336</v>
+        <v>454.1</v>
       </c>
       <c r="P9">
-        <v>4.7437499999999995</v>
+        <v>455.4</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1047,43 +1047,43 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>82.649572649572647</v>
+        <v>9670</v>
       </c>
       <c r="E10">
-        <v>94.973451327433622</v>
+        <v>10732</v>
       </c>
       <c r="F10">
-        <v>166.58660714285716</v>
+        <v>18657.7</v>
       </c>
       <c r="G10">
-        <v>177.77363636363634</v>
+        <v>19555.099999999999</v>
       </c>
       <c r="H10">
-        <v>194.53142857142856</v>
+        <v>20425.8</v>
       </c>
       <c r="I10">
-        <v>223.1010101010101</v>
+        <v>22087</v>
       </c>
       <c r="J10">
-        <v>254.88958333333335</v>
+        <v>24469.4</v>
       </c>
       <c r="K10">
-        <v>272.25816326530611</v>
+        <v>26681.3</v>
       </c>
       <c r="L10">
-        <v>282.15154639175256</v>
+        <v>27368.7</v>
       </c>
       <c r="M10">
-        <v>322.546875</v>
+        <v>30964.5</v>
       </c>
       <c r="N10">
-        <v>338.56020408163266</v>
+        <v>33178.9</v>
       </c>
       <c r="O10">
-        <v>383.58229166666666</v>
+        <v>36823.9</v>
       </c>
       <c r="P10">
-        <v>395.75104166666665</v>
+        <v>37992.1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1097,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>416.99401709401712</v>
+        <v>48788.3</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1106,34 +1106,34 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>529.73</v>
+        <v>58270.3</v>
       </c>
       <c r="H11">
-        <v>584.42095238095237</v>
+        <v>61364.2</v>
       </c>
       <c r="I11">
-        <v>694.86262626262624</v>
+        <v>68791.399999999994</v>
       </c>
       <c r="J11">
-        <v>745.07708333333323</v>
+        <v>71527.399999999994</v>
       </c>
       <c r="K11">
-        <v>757.23877551020405</v>
+        <v>74209.399999999994</v>
       </c>
       <c r="L11">
-        <v>812.81134020618549</v>
+        <v>78842.7</v>
       </c>
       <c r="M11">
-        <v>967.45208333333323</v>
+        <v>92875.4</v>
       </c>
       <c r="N11">
-        <v>1025.4397959183675</v>
+        <v>100493.1</v>
       </c>
       <c r="O11">
-        <v>1093.9833333333333</v>
+        <v>105022.39999999999</v>
       </c>
       <c r="P11">
-        <v>1114.7437499999999</v>
+        <v>107015.4</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1147,43 +1147,43 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>32.780341880341879</v>
+        <v>3835.3</v>
       </c>
       <c r="E12">
-        <v>37.901769911504424</v>
+        <v>4282.8999999999996</v>
       </c>
       <c r="F12">
-        <v>40.973214285714285</v>
+        <v>4589</v>
       </c>
       <c r="G12">
-        <v>44.87</v>
+        <v>4935.7</v>
       </c>
       <c r="H12">
-        <v>50.087619047619043</v>
+        <v>5259.2</v>
       </c>
       <c r="I12">
-        <v>61.414141414141412</v>
+        <v>6080</v>
       </c>
       <c r="J12">
-        <v>72.355208333333337</v>
+        <v>6946.1</v>
       </c>
       <c r="K12">
-        <v>83.575510204081624</v>
+        <v>8190.4</v>
       </c>
       <c r="L12">
-        <v>87.237113402061851</v>
+        <v>8462</v>
       </c>
       <c r="M12">
-        <v>98.079166666666666</v>
+        <v>9415.6</v>
       </c>
       <c r="N12">
-        <v>104.90816326530613</v>
+        <v>10281</v>
       </c>
       <c r="O12">
-        <v>112.621875</v>
+        <v>10811.7</v>
       </c>
       <c r="P12">
-        <v>113.25625000000001</v>
+        <v>10872.6</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1197,43 +1197,43 @@
         <v>23</v>
       </c>
       <c r="D13">
-        <v>0.15920256410256411</v>
+        <v>18.6267</v>
       </c>
       <c r="E13">
-        <v>0.2257637168141593</v>
+        <v>25.511299999999999</v>
       </c>
       <c r="F13">
-        <v>0.30352678571428571</v>
+        <v>33.994999999999997</v>
       </c>
       <c r="G13">
-        <v>0.37272727272727274</v>
+        <v>41</v>
       </c>
       <c r="H13">
-        <v>0.46476190476190471</v>
+        <v>48.8</v>
       </c>
       <c r="I13">
-        <v>0.58080808080808077</v>
+        <v>57.5</v>
       </c>
       <c r="J13">
-        <v>0.703125</v>
+        <v>67.5</v>
       </c>
       <c r="K13">
-        <v>0.78775510204081634</v>
+        <v>77.2</v>
       </c>
       <c r="L13">
-        <v>0.91237113402061853</v>
+        <v>88.5</v>
       </c>
       <c r="M13">
-        <v>1.0875000000000001</v>
+        <v>104.4</v>
       </c>
       <c r="N13">
-        <v>1.2540816326530613</v>
+        <v>122.9</v>
       </c>
       <c r="O13">
-        <v>1.45625</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="P13">
-        <v>1.6156249999999999</v>
+        <v>155.1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1256,34 +1256,34 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>179.50272727272727</v>
+        <v>19745.3</v>
       </c>
       <c r="H14">
-        <v>184.46190476190475</v>
+        <v>19368.5</v>
       </c>
       <c r="I14">
-        <v>199.27777777777777</v>
+        <v>19728.5</v>
       </c>
       <c r="J14">
-        <v>215.54375000000002</v>
+        <v>20692.2</v>
       </c>
       <c r="K14">
-        <v>210.72448979591837</v>
+        <v>20651</v>
       </c>
       <c r="L14">
-        <v>197.84845360824741</v>
+        <v>19191.3</v>
       </c>
       <c r="M14">
-        <v>235.10833333333335</v>
+        <v>22570.400000000001</v>
       </c>
       <c r="N14">
-        <v>275.63265306122452</v>
+        <v>27012</v>
       </c>
       <c r="O14">
-        <v>264.00208333333336</v>
+        <v>25344.2</v>
       </c>
       <c r="P14">
-        <v>264.09270833333335</v>
+        <v>25352.9</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1306,34 +1306,34 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3009090909090909</v>
+        <v>33.1</v>
       </c>
       <c r="H15">
-        <v>0.55238095238095242</v>
+        <v>58</v>
       </c>
       <c r="I15">
-        <v>0.69292929292929284</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="J15">
-        <v>0.4916666666666667</v>
+        <v>47.2</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.6237113402061856</v>
+        <v>157.5</v>
       </c>
       <c r="M15">
-        <v>1.3114583333333334</v>
+        <v>125.9</v>
       </c>
       <c r="N15">
-        <v>1.5959183673469388</v>
+        <v>156.4</v>
       </c>
       <c r="O15">
-        <v>1.7947916666666668</v>
+        <v>172.3</v>
       </c>
       <c r="P15">
-        <v>3.4010416666666665</v>
+        <v>326.5</v>
       </c>
     </row>
     <row r="16" spans="1:16">
